--- a/TestData/мандрик_25,01,22 (1).xlsx
+++ b/TestData/мандрик_25,01,22 (1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6558" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7107" uniqueCount="1048">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -3165,6 +3165,12 @@
   </si>
   <si>
     <t>Поддержка карт памяти</t>
+  </si>
+  <si>
+    <t>Тестовый параметро</t>
+  </si>
+  <si>
+    <t>Тестовое значение</t>
   </si>
 </sst>
 </file>
@@ -3652,7 +3658,7 @@
         <v>1033</v>
       </c>
       <c r="BX1" t="s">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="BY1" t="s">
         <v>1035</v>
@@ -4464,9 +4470,7 @@
       <c r="X16" t="s">
         <v>835</v>
       </c>
-      <c r="Y16" t="s">
-        <v>845</v>
-      </c>
+      <c r="Y16"/>
       <c r="Z16" t="s">
         <v>845</v>
       </c>
@@ -4616,6 +4620,9 @@
       </c>
       <c r="BW16" t="s">
         <v>882</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
